--- a/VersionRecords/Version 5.0.3.3 20161014/配置文件/FX01.域名变更配置文件.xlsx
+++ b/VersionRecords/Version 5.0.3.3 20161014/配置文件/FX01.域名变更配置文件.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 5.0.3.3 20161014\配置文件\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="28695" windowHeight="13020"/>
   </bookViews>
@@ -120,8 +115,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -173,6 +168,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -394,6 +390,74 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -413,7 +477,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -733,14 +797,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="13" customWidth="1"/>
@@ -1576,7 +1640,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
@@ -1593,7 +1657,7 @@
       <c r="L1" s="16"/>
       <c r="M1" s="17"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1608,7 +1672,7 @@
       <c r="L2" s="18"/>
       <c r="M2" s="19"/>
     </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="16.5">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1649,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="8" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="8" customFormat="1" ht="49.5">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1690,7 +1754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="8" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="8" customFormat="1" ht="66">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1731,7 +1795,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="8" customFormat="1" ht="16.5">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1746,7 +1810,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="8" customFormat="1" ht="16.5">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1761,7 +1825,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="8" customFormat="1" ht="16.5">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1776,7 +1840,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="8" customFormat="1" ht="16.5">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1791,7 +1855,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="8" customFormat="1" ht="16.5">
       <c r="A10" s="5"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1806,7 +1870,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="8" customFormat="1" ht="16.5">
       <c r="A11" s="5"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1821,7 +1885,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:13" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="4" customFormat="1" ht="16.5">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
